--- a/database/industries/folad/fakhouz/product/quarterly.xlsx
+++ b/database/industries/folad/fakhouz/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\fakhouz\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\fakhouz\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1911B006-8BB6-4B25-B532-D1925E925A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C800AD3-BB4F-42BB-B096-DD604AF0E9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="39">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار تولید</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -577,16 +592,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I87"/>
+  <dimension ref="B1:N87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -595,8 +610,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -607,8 +627,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -619,8 +644,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -629,8 +659,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -641,8 +676,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -653,8 +693,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -663,8 +708,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -685,8 +735,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -695,268 +760,438 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>1473626</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1458395</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1052291</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1513761</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1247887</v>
+      </c>
+      <c r="J10" s="9">
         <v>1304267</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>1339752</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>1166198</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>1403658</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>1497437</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>330914</v>
+      </c>
+      <c r="F11" s="11">
+        <v>377397</v>
+      </c>
+      <c r="G11" s="11">
+        <v>376565</v>
+      </c>
+      <c r="H11" s="11">
+        <v>468767</v>
+      </c>
+      <c r="I11" s="11">
+        <v>331868</v>
+      </c>
+      <c r="J11" s="11">
         <v>504770</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>443385</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>486663</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>275421</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>289338</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>933673</v>
+      </c>
+      <c r="F12" s="9">
+        <v>925055</v>
+      </c>
+      <c r="G12" s="9">
+        <v>882574</v>
+      </c>
+      <c r="H12" s="9">
+        <v>1013812</v>
+      </c>
+      <c r="I12" s="9">
+        <v>584949</v>
+      </c>
+      <c r="J12" s="9">
         <v>892042</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>770265</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>1058720</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>709234</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>911293</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
+        <v>620483</v>
+      </c>
+      <c r="F13" s="11">
+        <v>563966</v>
+      </c>
+      <c r="G13" s="11">
+        <v>485305</v>
+      </c>
+      <c r="H13" s="11">
+        <v>457480</v>
+      </c>
+      <c r="I13" s="11">
+        <v>168844</v>
+      </c>
+      <c r="J13" s="11">
         <v>485085</v>
       </c>
-      <c r="F13" s="11">
+      <c r="K13" s="11">
         <v>469561</v>
       </c>
-      <c r="G13" s="11">
+      <c r="L13" s="11">
         <v>500877</v>
       </c>
-      <c r="H13" s="11">
+      <c r="M13" s="11">
         <v>479848</v>
       </c>
-      <c r="I13" s="11">
+      <c r="N13" s="11">
         <v>672746</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
-      <c r="E15" s="11">
-        <v>0</v>
-      </c>
-      <c r="F15" s="11">
-        <v>0</v>
-      </c>
-      <c r="G15" s="11">
-        <v>0</v>
-      </c>
-      <c r="H15" s="11">
-        <v>0</v>
+      <c r="E15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="I15" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J15" s="11">
+        <v>0</v>
+      </c>
+      <c r="K15" s="11">
+        <v>0</v>
+      </c>
+      <c r="L15" s="11">
+        <v>0</v>
+      </c>
+      <c r="M15" s="11">
+        <v>0</v>
+      </c>
+      <c r="N15" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>0</v>
+        <v>7194</v>
       </c>
       <c r="F16" s="9">
-        <v>0</v>
-      </c>
-      <c r="G16" s="9" t="s">
+        <v>-7194</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0</v>
+      </c>
+      <c r="J16" s="9">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>11</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9">
+        <v>50765</v>
+      </c>
+      <c r="F18" s="9">
+        <v>26298</v>
+      </c>
+      <c r="G18" s="9">
+        <v>34277</v>
+      </c>
+      <c r="H18" s="9">
+        <v>30148</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>11</v>
-      </c>
       <c r="D19" s="11"/>
-      <c r="E19" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>16</v>
+      <c r="E19" s="11">
+        <v>0</v>
+      </c>
+      <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
+        <v>3416655</v>
+      </c>
+      <c r="F20" s="13">
+        <v>3343917</v>
+      </c>
+      <c r="G20" s="13">
+        <v>2831012</v>
+      </c>
+      <c r="H20" s="13">
+        <v>3483968</v>
+      </c>
+      <c r="I20" s="13">
+        <v>2333548</v>
+      </c>
+      <c r="J20" s="13">
         <v>3186164</v>
       </c>
-      <c r="F20" s="13">
+      <c r="K20" s="13">
         <v>3022963</v>
       </c>
-      <c r="G20" s="13">
+      <c r="L20" s="13">
         <v>3212458</v>
       </c>
-      <c r="H20" s="13">
+      <c r="M20" s="13">
         <v>2868161</v>
       </c>
-      <c r="I20" s="13">
+      <c r="N20" s="13">
         <v>3370814</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -965,8 +1200,13 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -975,8 +1215,13 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -985,10 +1230,15 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -1007,8 +1257,23 @@
       <c r="I24" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1017,220 +1282,360 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D26" s="9"/>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="9">
+        <v>16675</v>
+      </c>
+      <c r="F26" s="9">
+        <v>10783</v>
+      </c>
+      <c r="G26" s="9">
+        <v>55436</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="9">
+        <v>25121</v>
+      </c>
+      <c r="J26" s="9">
+        <v>82839</v>
+      </c>
+      <c r="K26" s="9">
+        <v>154067</v>
+      </c>
+      <c r="L26" s="9">
+        <v>50007</v>
+      </c>
+      <c r="M26" s="9">
+        <v>82955</v>
+      </c>
+      <c r="N26" s="9">
+        <v>109218</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="D27" s="11"/>
+      <c r="E27" s="11">
+        <v>352864</v>
+      </c>
+      <c r="F27" s="11">
+        <v>395999</v>
+      </c>
+      <c r="G27" s="11">
+        <v>330570</v>
+      </c>
+      <c r="H27" s="11">
+        <v>340516</v>
+      </c>
+      <c r="I27" s="11">
+        <v>392785</v>
+      </c>
+      <c r="J27" s="11">
+        <v>414569</v>
+      </c>
+      <c r="K27" s="11">
+        <v>622014</v>
+      </c>
+      <c r="L27" s="11">
+        <v>402957</v>
+      </c>
+      <c r="M27" s="11">
+        <v>270271</v>
+      </c>
+      <c r="N27" s="11">
+        <v>315745</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="9">
-        <v>50007</v>
-      </c>
-      <c r="H26" s="9">
-        <v>82955</v>
-      </c>
-      <c r="I26" s="9">
-        <v>109218</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11" t="s">
+      <c r="D28" s="9"/>
+      <c r="E28" s="9">
+        <v>2138</v>
+      </c>
+      <c r="F28" s="9">
+        <v>0</v>
+      </c>
+      <c r="G28" s="9">
+        <v>0</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="9">
+        <v>17278</v>
+      </c>
+      <c r="J28" s="9">
+        <v>43207</v>
+      </c>
+      <c r="K28" s="9">
+        <v>21499</v>
+      </c>
+      <c r="L28" s="9">
+        <v>15709</v>
+      </c>
+      <c r="M28" s="9">
+        <v>31990</v>
+      </c>
+      <c r="N28" s="9">
+        <v>24977</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11">
+        <v>0</v>
+      </c>
+      <c r="F29" s="11">
+        <v>0</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N29" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="D30" s="9"/>
+      <c r="E30" s="9">
+        <v>582316</v>
+      </c>
+      <c r="F30" s="9">
+        <v>563425</v>
+      </c>
+      <c r="G30" s="9">
+        <v>484992</v>
+      </c>
+      <c r="H30" s="9">
+        <v>516584</v>
+      </c>
+      <c r="I30" s="9">
+        <v>214256</v>
+      </c>
+      <c r="J30" s="9">
+        <v>400197</v>
+      </c>
+      <c r="K30" s="9">
+        <v>524855</v>
+      </c>
+      <c r="L30" s="9">
+        <v>396355</v>
+      </c>
+      <c r="M30" s="9">
+        <v>530910</v>
+      </c>
+      <c r="N30" s="9">
+        <v>652231</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="G27" s="11">
-        <v>402957</v>
-      </c>
-      <c r="H27" s="11">
-        <v>270271</v>
-      </c>
-      <c r="I27" s="11">
-        <v>315745</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" s="9">
-        <v>15709</v>
-      </c>
-      <c r="H28" s="9">
-        <v>31990</v>
-      </c>
-      <c r="I28" s="9">
-        <v>24977</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" s="9">
-        <v>396355</v>
-      </c>
-      <c r="H30" s="9">
-        <v>530910</v>
-      </c>
-      <c r="I30" s="9">
-        <v>652231</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>11</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M31" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N31" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="9">
+        <v>0</v>
+      </c>
+      <c r="F32" s="9">
+        <v>0</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" s="9">
+        <v>0</v>
+      </c>
+      <c r="J32" s="9">
+        <v>0</v>
+      </c>
+      <c r="K32" s="9">
+        <v>0</v>
+      </c>
+      <c r="L32" s="9">
+        <v>0</v>
+      </c>
+      <c r="M32" s="9">
+        <v>0</v>
+      </c>
+      <c r="N32" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" s="9">
-        <v>0</v>
-      </c>
-      <c r="H32" s="9">
-        <v>0</v>
-      </c>
-      <c r="I32" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>11</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11">
-        <v>0</v>
+        <v>3965</v>
       </c>
       <c r="F33" s="11">
-        <v>0</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+        <v>5357</v>
+      </c>
+      <c r="G33" s="11">
+        <v>-21</v>
+      </c>
+      <c r="H33" s="11">
+        <v>0</v>
+      </c>
+      <c r="I33" s="11">
+        <v>0</v>
+      </c>
+      <c r="J33" s="11">
+        <v>0</v>
+      </c>
+      <c r="K33" s="11">
+        <v>0</v>
+      </c>
+      <c r="L33" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N33" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13">
-        <v>0</v>
+        <v>957958</v>
       </c>
       <c r="F34" s="13">
-        <v>0</v>
+        <v>975564</v>
       </c>
       <c r="G34" s="13">
+        <v>870977</v>
+      </c>
+      <c r="H34" s="13">
+        <v>857100</v>
+      </c>
+      <c r="I34" s="13">
+        <v>649440</v>
+      </c>
+      <c r="J34" s="13">
+        <v>940812</v>
+      </c>
+      <c r="K34" s="13">
+        <v>1322435</v>
+      </c>
+      <c r="L34" s="13">
         <v>865028</v>
       </c>
-      <c r="H34" s="13">
+      <c r="M34" s="13">
         <v>916126</v>
       </c>
-      <c r="I34" s="13">
+      <c r="N34" s="13">
         <v>1102171</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1239,8 +1644,13 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1249,8 +1659,13 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1259,10 +1674,15 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -1281,8 +1701,23 @@
       <c r="I38" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1291,222 +1726,362 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D40" s="9"/>
-      <c r="E40" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>16</v>
+      <c r="E40" s="9">
+        <v>275067</v>
+      </c>
+      <c r="F40" s="9">
+        <v>261174</v>
       </c>
       <c r="G40" s="9">
+        <v>1369441</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" s="9">
+        <v>902973</v>
+      </c>
+      <c r="J40" s="9">
+        <v>2923895</v>
+      </c>
+      <c r="K40" s="9">
+        <v>5803507</v>
+      </c>
+      <c r="L40" s="9">
         <v>1817350</v>
       </c>
-      <c r="H40" s="9">
+      <c r="M40" s="9">
         <v>2320802</v>
       </c>
-      <c r="I40" s="9">
+      <c r="N40" s="9">
         <v>3179513</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D41" s="11"/>
-      <c r="E41" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>16</v>
+      <c r="E41" s="11">
+        <v>23047318</v>
+      </c>
+      <c r="F41" s="11">
+        <v>39708870</v>
       </c>
       <c r="G41" s="11">
+        <v>40825274</v>
+      </c>
+      <c r="H41" s="11">
+        <v>47757168</v>
+      </c>
+      <c r="I41" s="11">
+        <v>62213326</v>
+      </c>
+      <c r="J41" s="11">
+        <v>65700931</v>
+      </c>
+      <c r="K41" s="11">
+        <v>92643522</v>
+      </c>
+      <c r="L41" s="11">
         <v>65375921</v>
       </c>
-      <c r="H41" s="11">
+      <c r="M41" s="11">
         <v>36759747</v>
       </c>
-      <c r="I41" s="11">
+      <c r="N41" s="11">
         <v>38769972</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D42" s="9"/>
-      <c r="E42" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>16</v>
+      <c r="E42" s="9">
+        <v>45674</v>
+      </c>
+      <c r="F42" s="9">
+        <v>0</v>
       </c>
       <c r="G42" s="9">
+        <v>0</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" s="9">
+        <v>1427302</v>
+      </c>
+      <c r="J42" s="9">
+        <v>3571623</v>
+      </c>
+      <c r="K42" s="9">
+        <v>1876712</v>
+      </c>
+      <c r="L42" s="9">
         <v>1499746</v>
       </c>
-      <c r="H42" s="9">
+      <c r="M42" s="9">
         <v>2692731</v>
       </c>
-      <c r="I42" s="9">
+      <c r="N42" s="9">
         <v>1987632</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D43" s="11"/>
-      <c r="E43" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>16</v>
+      <c r="E43" s="11">
+        <v>0</v>
+      </c>
+      <c r="F43" s="11">
+        <v>0</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L43" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M43" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N43" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D44" s="9"/>
-      <c r="E44" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>16</v>
+      <c r="E44" s="9">
+        <v>40369782</v>
+      </c>
+      <c r="F44" s="9">
+        <v>56307846</v>
       </c>
       <c r="G44" s="9">
+        <v>55475889</v>
+      </c>
+      <c r="H44" s="9">
+        <v>61310656</v>
+      </c>
+      <c r="I44" s="9">
+        <v>28272389</v>
+      </c>
+      <c r="J44" s="9">
+        <v>56510266</v>
+      </c>
+      <c r="K44" s="9">
+        <v>71251796</v>
+      </c>
+      <c r="L44" s="9">
         <v>58948188</v>
       </c>
-      <c r="H44" s="9">
+      <c r="M44" s="9">
         <v>68440818</v>
       </c>
-      <c r="I44" s="9">
+      <c r="N44" s="9">
         <v>85073827</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L45" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M45" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N45" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D46" s="9"/>
-      <c r="E46" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" s="9">
-        <v>0</v>
-      </c>
-      <c r="H46" s="9">
-        <v>0</v>
+      <c r="E46" s="9">
+        <v>0</v>
+      </c>
+      <c r="F46" s="9">
+        <v>0</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="I46" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="9">
+        <v>0</v>
+      </c>
+      <c r="K46" s="9">
+        <v>0</v>
+      </c>
+      <c r="L46" s="9">
+        <v>0</v>
+      </c>
+      <c r="M46" s="9">
+        <v>0</v>
+      </c>
+      <c r="N46" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11">
-        <v>0</v>
+        <v>287401</v>
       </c>
       <c r="F47" s="11">
-        <v>0</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I47" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+        <v>400251</v>
+      </c>
+      <c r="G47" s="11">
+        <v>-2119</v>
+      </c>
+      <c r="H47" s="11">
+        <v>0</v>
+      </c>
+      <c r="I47" s="11">
+        <v>0</v>
+      </c>
+      <c r="J47" s="11">
+        <v>0</v>
+      </c>
+      <c r="K47" s="11">
+        <v>0</v>
+      </c>
+      <c r="L47" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M47" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N47" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
       <c r="E48" s="13">
-        <v>0</v>
+        <v>64025242</v>
       </c>
       <c r="F48" s="13">
-        <v>0</v>
+        <v>96678141</v>
       </c>
       <c r="G48" s="13">
+        <v>97668485</v>
+      </c>
+      <c r="H48" s="13">
+        <v>109067824</v>
+      </c>
+      <c r="I48" s="13">
+        <v>92815990</v>
+      </c>
+      <c r="J48" s="13">
+        <v>128706715</v>
+      </c>
+      <c r="K48" s="13">
+        <v>171575537</v>
+      </c>
+      <c r="L48" s="13">
         <v>127641205</v>
       </c>
-      <c r="H48" s="13">
+      <c r="M48" s="13">
         <v>110214098</v>
       </c>
-      <c r="I48" s="13">
+      <c r="N48" s="13">
         <v>129010944</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1515,8 +2090,13 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1525,8 +2105,13 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1535,10 +2120,15 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -1557,8 +2147,23 @@
       <c r="I52" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M52" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N52" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1567,200 +2172,325 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9">
+        <v>16495772</v>
+      </c>
+      <c r="F54" s="9">
+        <v>24220903</v>
+      </c>
+      <c r="G54" s="9">
+        <v>24703099</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I54" s="9">
+        <v>35944946</v>
+      </c>
+      <c r="J54" s="9">
         <v>35296117</v>
       </c>
-      <c r="F54" s="9">
+      <c r="K54" s="9">
         <v>37668722</v>
       </c>
-      <c r="G54" s="9">
+      <c r="L54" s="9">
         <v>36341912</v>
       </c>
-      <c r="H54" s="9">
+      <c r="M54" s="9">
         <v>27976638</v>
       </c>
-      <c r="I54" s="9">
+      <c r="N54" s="9">
         <v>29111621</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11">
+        <v>65315017</v>
+      </c>
+      <c r="F55" s="11">
+        <v>100275177</v>
+      </c>
+      <c r="G55" s="11">
+        <v>123499634</v>
+      </c>
+      <c r="H55" s="11">
+        <v>140249410</v>
+      </c>
+      <c r="I55" s="11">
+        <v>158390280</v>
+      </c>
+      <c r="J55" s="11">
         <v>158480087</v>
       </c>
-      <c r="F55" s="11">
+      <c r="K55" s="11">
         <v>148941217</v>
       </c>
-      <c r="G55" s="11">
+      <c r="L55" s="11">
         <v>162240440</v>
       </c>
-      <c r="H55" s="11">
+      <c r="M55" s="11">
         <v>136010697</v>
       </c>
-      <c r="I55" s="11">
+      <c r="N55" s="11">
         <v>122788871</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9">
+        <v>21362956</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I56" s="9">
+        <v>82608056</v>
+      </c>
+      <c r="J56" s="9">
         <v>82663064</v>
       </c>
-      <c r="F56" s="9">
+      <c r="K56" s="9">
         <v>87292990</v>
       </c>
-      <c r="G56" s="9">
+      <c r="L56" s="9">
         <v>95470495</v>
       </c>
-      <c r="H56" s="9">
+      <c r="M56" s="9">
         <v>84174148</v>
       </c>
-      <c r="I56" s="9">
+      <c r="N56" s="9">
         <v>79578492</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K57" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L57" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M57" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N57" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9">
+        <v>69326246</v>
+      </c>
+      <c r="F58" s="9">
+        <v>99938494</v>
+      </c>
+      <c r="G58" s="9">
+        <v>114385163</v>
+      </c>
+      <c r="H58" s="9">
+        <v>118684775</v>
+      </c>
+      <c r="I58" s="9">
+        <v>131956113</v>
+      </c>
+      <c r="J58" s="9">
         <v>141206121</v>
       </c>
-      <c r="F58" s="9">
+      <c r="K58" s="9">
         <v>135755201</v>
       </c>
-      <c r="G58" s="9">
+      <c r="L58" s="9">
         <v>148725733</v>
       </c>
-      <c r="H58" s="9">
+      <c r="M58" s="9">
         <v>128912279</v>
       </c>
-      <c r="I58" s="9">
+      <c r="N58" s="9">
         <v>130435117</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="J59" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K59" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L59" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M59" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N59" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="J60" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K60" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L60" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M60" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N60" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D61" s="11"/>
-      <c r="E61" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" s="11" t="s">
-        <v>16</v>
+      <c r="E61" s="11">
+        <v>72484489</v>
+      </c>
+      <c r="F61" s="11">
+        <v>74715512</v>
+      </c>
+      <c r="G61" s="11">
+        <v>100904762</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="J61" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K61" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L61" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M61" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N61" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1769,8 +2499,13 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1779,8 +2514,13 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1789,10 +2529,15 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+    </row>
+    <row r="65" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B65" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
@@ -1811,8 +2556,23 @@
       <c r="I65" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J65" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L65" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M65" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N65" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1821,133 +2581,213 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9">
+        <v>-487142</v>
+      </c>
+      <c r="F67" s="9">
+        <v>-572196</v>
+      </c>
+      <c r="G67" s="9">
+        <v>-755124</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I67" s="9">
+        <v>-675453</v>
+      </c>
+      <c r="J67" s="9">
         <v>-2424058</v>
       </c>
-      <c r="F67" s="9">
+      <c r="K67" s="9">
         <v>-4523319</v>
       </c>
-      <c r="G67" s="9">
+      <c r="L67" s="9">
         <v>-1689863</v>
       </c>
-      <c r="H67" s="9">
+      <c r="M67" s="9">
         <v>-3034977</v>
       </c>
-      <c r="I67" s="9">
+      <c r="N67" s="9">
         <v>-3767191</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11">
+        <v>-14474148</v>
+      </c>
+      <c r="F68" s="11">
+        <v>-21577490</v>
+      </c>
+      <c r="G68" s="11">
+        <v>-22937127</v>
+      </c>
+      <c r="H68" s="11">
+        <v>-23788042</v>
+      </c>
+      <c r="I68" s="11">
+        <v>-34692584</v>
+      </c>
+      <c r="J68" s="11">
         <v>-38392177</v>
       </c>
-      <c r="F68" s="11">
+      <c r="K68" s="11">
         <v>-70787508</v>
       </c>
-      <c r="G68" s="11">
+      <c r="L68" s="11">
         <v>-42826842</v>
       </c>
-      <c r="H68" s="11">
+      <c r="M68" s="11">
         <v>-32207816</v>
       </c>
-      <c r="I68" s="11">
+      <c r="N68" s="11">
         <v>-36010063</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9">
+        <v>-43902</v>
+      </c>
+      <c r="F69" s="9">
+        <v>0</v>
+      </c>
+      <c r="G69" s="9">
+        <v>0</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I69" s="9">
+        <v>-806126</v>
+      </c>
+      <c r="J69" s="9">
         <v>-2172688</v>
       </c>
-      <c r="F69" s="9">
+      <c r="K69" s="9">
         <v>-1382006</v>
       </c>
-      <c r="G69" s="9">
+      <c r="L69" s="9">
         <v>-939008</v>
       </c>
-      <c r="H69" s="9">
+      <c r="M69" s="9">
         <v>-2077086</v>
       </c>
-      <c r="I69" s="9">
+      <c r="N69" s="9">
         <v>-1518962</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D70" s="11"/>
-      <c r="E70" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F70" s="11" t="s">
-        <v>16</v>
+      <c r="E70" s="11">
+        <v>0</v>
+      </c>
+      <c r="F70" s="11">
+        <v>0</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="J70" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K70" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L70" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M70" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N70" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9">
+        <v>-23937349</v>
+      </c>
+      <c r="F71" s="9">
+        <v>-32048084</v>
+      </c>
+      <c r="G71" s="9">
+        <v>-33205967</v>
+      </c>
+      <c r="H71" s="9">
+        <v>-36068191</v>
+      </c>
+      <c r="I71" s="9">
+        <v>-22104066</v>
+      </c>
+      <c r="J71" s="9">
         <v>-37884138</v>
       </c>
-      <c r="F71" s="9">
+      <c r="K71" s="9">
         <v>-62049760</v>
       </c>
-      <c r="G71" s="9">
+      <c r="L71" s="9">
         <v>-43113127</v>
       </c>
-      <c r="H71" s="9">
+      <c r="M71" s="9">
         <v>-61621950</v>
       </c>
-      <c r="I71" s="9">
+      <c r="N71" s="9">
         <v>-72793716</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
@@ -1956,63 +2796,108 @@
       <c r="F72" s="11">
         <v>0</v>
       </c>
-      <c r="G72" s="11">
-        <v>0</v>
-      </c>
-      <c r="H72" s="11">
-        <v>0</v>
+      <c r="G72" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="I72" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J72" s="11">
+        <v>0</v>
+      </c>
+      <c r="K72" s="11">
+        <v>0</v>
+      </c>
+      <c r="L72" s="11">
+        <v>0</v>
+      </c>
+      <c r="M72" s="11">
+        <v>0</v>
+      </c>
+      <c r="N72" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9">
-        <v>0</v>
+        <v>-185651</v>
       </c>
       <c r="F73" s="9">
-        <v>0</v>
-      </c>
-      <c r="G73" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H73" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I73" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+        <v>-262250</v>
+      </c>
+      <c r="G73" s="9">
+        <v>-76037</v>
+      </c>
+      <c r="H73" s="9">
+        <v>0</v>
+      </c>
+      <c r="I73" s="9">
+        <v>0</v>
+      </c>
+      <c r="J73" s="9">
+        <v>0</v>
+      </c>
+      <c r="K73" s="9">
+        <v>0</v>
+      </c>
+      <c r="L73" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M73" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N73" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
       <c r="E74" s="15">
+        <v>-39128192</v>
+      </c>
+      <c r="F74" s="15">
+        <v>-54460020</v>
+      </c>
+      <c r="G74" s="15">
+        <v>-56974255</v>
+      </c>
+      <c r="H74" s="15">
+        <v>-59856233</v>
+      </c>
+      <c r="I74" s="15">
+        <v>-58278229</v>
+      </c>
+      <c r="J74" s="15">
         <v>-80873061</v>
       </c>
-      <c r="F74" s="15">
+      <c r="K74" s="15">
         <v>-138742593</v>
       </c>
-      <c r="G74" s="15">
+      <c r="L74" s="15">
         <v>-88568840</v>
       </c>
-      <c r="H74" s="15">
+      <c r="M74" s="15">
         <v>-98941829</v>
       </c>
-      <c r="I74" s="15">
+      <c r="N74" s="15">
         <v>-114089932</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2021,8 +2906,13 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2031,8 +2921,13 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2041,10 +2936,15 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-    </row>
-    <row r="78" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+    </row>
+    <row r="78" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B78" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -2063,8 +2963,23 @@
       <c r="I78" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J78" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K78" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L78" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M78" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N78" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2073,133 +2988,213 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9">
+        <v>-212075</v>
+      </c>
+      <c r="F80" s="9">
+        <v>-311022</v>
+      </c>
+      <c r="G80" s="9">
+        <v>614317</v>
+      </c>
+      <c r="H80" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I80" s="9">
+        <v>227520</v>
+      </c>
+      <c r="J80" s="9">
         <v>499837</v>
       </c>
-      <c r="F80" s="9">
+      <c r="K80" s="9">
         <v>1280188</v>
       </c>
-      <c r="G80" s="9">
+      <c r="L80" s="9">
         <v>127487</v>
       </c>
-      <c r="H80" s="9">
+      <c r="M80" s="9">
         <v>-714175</v>
       </c>
-      <c r="I80" s="9">
+      <c r="N80" s="9">
         <v>-587678</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11">
+        <v>8573170</v>
+      </c>
+      <c r="F81" s="11">
+        <v>18131380</v>
+      </c>
+      <c r="G81" s="11">
+        <v>17888147</v>
+      </c>
+      <c r="H81" s="11">
+        <v>23969126</v>
+      </c>
+      <c r="I81" s="11">
+        <v>27520742</v>
+      </c>
+      <c r="J81" s="11">
         <v>27308754</v>
       </c>
-      <c r="F81" s="11">
+      <c r="K81" s="11">
         <v>21856014</v>
       </c>
-      <c r="G81" s="11">
+      <c r="L81" s="11">
         <v>22549079</v>
       </c>
-      <c r="H81" s="11">
+      <c r="M81" s="11">
         <v>4551931</v>
       </c>
-      <c r="I81" s="11">
+      <c r="N81" s="11">
         <v>2759909</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="9">
+        <v>1772</v>
+      </c>
+      <c r="F82" s="9">
+        <v>0</v>
+      </c>
+      <c r="G82" s="9">
+        <v>0</v>
+      </c>
+      <c r="H82" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I82" s="9">
+        <v>621176</v>
+      </c>
+      <c r="J82" s="9">
         <v>1398935</v>
       </c>
-      <c r="F82" s="9">
+      <c r="K82" s="9">
         <v>494706</v>
       </c>
-      <c r="G82" s="9">
+      <c r="L82" s="9">
         <v>560738</v>
       </c>
-      <c r="H82" s="9">
+      <c r="M82" s="9">
         <v>615645</v>
       </c>
-      <c r="I82" s="9">
+      <c r="N82" s="9">
         <v>468670</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D83" s="11"/>
-      <c r="E83" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F83" s="11" t="s">
-        <v>16</v>
+      <c r="E83" s="11">
+        <v>0</v>
+      </c>
+      <c r="F83" s="11">
+        <v>0</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="J83" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K83" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L83" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M83" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N83" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="9">
+        <v>16432433</v>
+      </c>
+      <c r="F84" s="9">
+        <v>24259762</v>
+      </c>
+      <c r="G84" s="9">
+        <v>22269922</v>
+      </c>
+      <c r="H84" s="9">
+        <v>25242465</v>
+      </c>
+      <c r="I84" s="9">
+        <v>6168323</v>
+      </c>
+      <c r="J84" s="9">
         <v>18626128</v>
       </c>
-      <c r="F84" s="9">
+      <c r="K84" s="9">
         <v>9202036</v>
       </c>
-      <c r="G84" s="9">
+      <c r="L84" s="9">
         <v>15835061</v>
       </c>
-      <c r="H84" s="9">
+      <c r="M84" s="9">
         <v>6818868</v>
       </c>
-      <c r="I84" s="9">
+      <c r="N84" s="9">
         <v>12280111</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11">
@@ -2208,59 +3203,104 @@
       <c r="F85" s="11">
         <v>0</v>
       </c>
-      <c r="G85" s="11">
-        <v>0</v>
-      </c>
-      <c r="H85" s="11">
-        <v>0</v>
+      <c r="G85" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H85" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="I85" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J85" s="11">
+        <v>0</v>
+      </c>
+      <c r="K85" s="11">
+        <v>0</v>
+      </c>
+      <c r="L85" s="11">
+        <v>0</v>
+      </c>
+      <c r="M85" s="11">
+        <v>0</v>
+      </c>
+      <c r="N85" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9">
-        <v>0</v>
+        <v>101750</v>
       </c>
       <c r="F86" s="9">
-        <v>0</v>
-      </c>
-      <c r="G86" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H86" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I86" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+        <v>138001</v>
+      </c>
+      <c r="G86" s="9">
+        <v>-78156</v>
+      </c>
+      <c r="H86" s="9">
+        <v>0</v>
+      </c>
+      <c r="I86" s="9">
+        <v>0</v>
+      </c>
+      <c r="J86" s="9">
+        <v>0</v>
+      </c>
+      <c r="K86" s="9">
+        <v>0</v>
+      </c>
+      <c r="L86" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M86" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N86" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
       <c r="E87" s="15">
+        <v>24897050</v>
+      </c>
+      <c r="F87" s="15">
+        <v>42218121</v>
+      </c>
+      <c r="G87" s="15">
+        <v>40694230</v>
+      </c>
+      <c r="H87" s="15">
+        <v>49211591</v>
+      </c>
+      <c r="I87" s="15">
+        <v>34537761</v>
+      </c>
+      <c r="J87" s="15">
         <v>47833654</v>
       </c>
-      <c r="F87" s="15">
+      <c r="K87" s="15">
         <v>32832944</v>
       </c>
-      <c r="G87" s="15">
+      <c r="L87" s="15">
         <v>39072365</v>
       </c>
-      <c r="H87" s="15">
+      <c r="M87" s="15">
         <v>11272269</v>
       </c>
-      <c r="I87" s="15">
+      <c r="N87" s="15">
         <v>14921012</v>
       </c>
     </row>

--- a/database/industries/folad/fakhouz/product/quarterly.xlsx
+++ b/database/industries/folad/fakhouz/product/quarterly.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\fakhouz\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\folad\fakhouz\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C800AD3-BB4F-42BB-B096-DD604AF0E9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -79,9 +78,6 @@
     <t>آهن اسفنجی</t>
   </si>
   <si>
-    <t>بلوم ، بیلت</t>
-  </si>
-  <si>
     <t>محصولات فرعی</t>
   </si>
   <si>
@@ -137,12 +133,15 @@
   </si>
   <si>
     <t>سود ناخالص</t>
+  </si>
+  <si>
+    <t>بلوم و بیلت</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -591,10 +590,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -885,7 +886,7 @@
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>16</v>
@@ -924,60 +925,60 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I15" s="11">
         <v>0</v>
@@ -1000,7 +1001,7 @@
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>16</v>
@@ -1016,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I16" s="9">
         <v>0</v>
@@ -1028,57 +1029,57 @@
         <v>0</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>16</v>
@@ -1097,27 +1098,27 @@
         <v>30148</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>16</v>
@@ -1133,30 +1134,30 @@
         <v>0</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N19" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -1238,7 +1239,7 @@
     </row>
     <row r="24" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -1306,7 +1307,7 @@
         <v>55436</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I26" s="9">
         <v>25121</v>
@@ -1384,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I28" s="9">
         <v>17278</v>
@@ -1407,10 +1408,10 @@
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>30</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11">
@@ -1420,33 +1421,33 @@
         <v>0</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L29" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>16</v>
@@ -1485,46 +1486,46 @@
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K31" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L31" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N31" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -1535,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9">
         <v>0</v>
@@ -1561,7 +1562,7 @@
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>16</v>
@@ -1589,18 +1590,18 @@
         <v>0</v>
       </c>
       <c r="L33" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N33" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -1682,7 +1683,7 @@
     </row>
     <row r="38" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -1737,7 +1738,7 @@
         <v>15</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9">
@@ -1750,7 +1751,7 @@
         <v>1369441</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9">
         <v>902973</v>
@@ -1776,7 +1777,7 @@
         <v>17</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11">
@@ -1815,7 +1816,7 @@
         <v>18</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9">
@@ -1828,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I42" s="9">
         <v>1427302</v>
@@ -1851,10 +1852,10 @@
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11">
@@ -1864,36 +1865,36 @@
         <v>0</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K43" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L43" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M43" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9">
@@ -1929,49 +1930,49 @@
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K45" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L45" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M45" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N45" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9">
@@ -1981,10 +1982,10 @@
         <v>0</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I46" s="9">
         <v>0</v>
@@ -2007,10 +2008,10 @@
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11">
@@ -2035,18 +2036,18 @@
         <v>0</v>
       </c>
       <c r="L47" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M47" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N47" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
@@ -2128,7 +2129,7 @@
     </row>
     <row r="52" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -2183,7 +2184,7 @@
         <v>15</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9">
@@ -2196,7 +2197,7 @@
         <v>24703099</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I54" s="9">
         <v>35944946</v>
@@ -2222,7 +2223,7 @@
         <v>17</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11">
@@ -2261,20 +2262,20 @@
         <v>18</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9">
         <v>21362956</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I56" s="9">
         <v>82608056</v>
@@ -2297,49 +2298,49 @@
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K57" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L57" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M57" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N57" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9">
@@ -2375,88 +2376,88 @@
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J59" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K59" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L59" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M59" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N59" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J60" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L60" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M60" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N60" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11">
@@ -2469,25 +2470,25 @@
         <v>100904762</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J61" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K61" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L61" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M61" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N61" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.25">
@@ -2537,7 +2538,7 @@
     </row>
     <row r="65" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B65" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
@@ -2592,7 +2593,7 @@
         <v>15</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9">
@@ -2605,7 +2606,7 @@
         <v>-755124</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I67" s="9">
         <v>-675453</v>
@@ -2631,7 +2632,7 @@
         <v>17</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11">
@@ -2670,7 +2671,7 @@
         <v>18</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9">
@@ -2683,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I69" s="9">
         <v>-806126</v>
@@ -2706,10 +2707,10 @@
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11">
@@ -2719,36 +2720,36 @@
         <v>0</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J70" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K70" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L70" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M70" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N70" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9">
@@ -2784,10 +2785,10 @@
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
@@ -2797,10 +2798,10 @@
         <v>0</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I72" s="11">
         <v>0</v>
@@ -2823,10 +2824,10 @@
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9">
@@ -2851,18 +2852,18 @@
         <v>0</v>
       </c>
       <c r="L73" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M73" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N73" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
@@ -2944,7 +2945,7 @@
     </row>
     <row r="78" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B78" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -2999,7 +3000,7 @@
         <v>15</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9">
@@ -3012,7 +3013,7 @@
         <v>614317</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I80" s="9">
         <v>227520</v>
@@ -3038,7 +3039,7 @@
         <v>17</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11">
@@ -3077,7 +3078,7 @@
         <v>18</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="9">
@@ -3090,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I82" s="9">
         <v>621176</v>
@@ -3113,10 +3114,10 @@
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11">
@@ -3126,36 +3127,36 @@
         <v>0</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J83" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K83" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L83" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M83" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N83" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="9">
@@ -3191,10 +3192,10 @@
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11">
@@ -3204,10 +3205,10 @@
         <v>0</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I85" s="11">
         <v>0</v>
@@ -3230,10 +3231,10 @@
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9">
@@ -3258,18 +3259,18 @@
         <v>0</v>
       </c>
       <c r="L86" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M86" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N86" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>

--- a/database/industries/folad/fakhouz/product/quarterly.xlsx
+++ b/database/industries/folad/fakhouz/product/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\folad\fakhouz\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\fakhouz\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAC702B-E620-4214-90FA-E2825C42C611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -78,6 +79,9 @@
     <t>آهن اسفنجی</t>
   </si>
   <si>
+    <t>بلوم ، بیلت</t>
+  </si>
+  <si>
     <t>محصولات فرعی</t>
   </si>
   <si>
@@ -133,15 +137,12 @@
   </si>
   <si>
     <t>سود ناخالص</t>
-  </si>
-  <si>
-    <t>بلوم و بیلت</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -590,19 +591,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -617,7 +616,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -634,7 +633,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -651,7 +650,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -666,7 +665,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -683,7 +682,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -700,7 +699,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -715,7 +714,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -752,7 +751,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -767,7 +766,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -806,7 +805,7 @@
         <v>1497437</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>17</v>
       </c>
@@ -845,7 +844,7 @@
         <v>289338</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>18</v>
       </c>
@@ -884,9 +883,9 @@
         <v>911293</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>16</v>
@@ -923,62 +922,62 @@
         <v>672746</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I15" s="11">
         <v>0</v>
@@ -999,9 +998,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>16</v>
@@ -1017,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9">
         <v>0</v>
@@ -1029,57 +1028,57 @@
         <v>0</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>16</v>
@@ -1098,27 +1097,27 @@
         <v>30148</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>16</v>
@@ -1134,30 +1133,30 @@
         <v>0</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N19" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -1192,7 +1191,7 @@
         <v>3370814</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1207,7 +1206,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1222,7 +1221,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1237,9 +1236,9 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -1274,7 +1273,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1289,7 +1288,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>15</v>
       </c>
@@ -1307,7 +1306,7 @@
         <v>55436</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9">
         <v>25121</v>
@@ -1328,7 +1327,7 @@
         <v>109218</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>17</v>
       </c>
@@ -1367,7 +1366,7 @@
         <v>315745</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>18</v>
       </c>
@@ -1385,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9">
         <v>17278</v>
@@ -1406,12 +1405,12 @@
         <v>24977</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11">
@@ -1421,33 +1420,33 @@
         <v>0</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L29" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>16</v>
@@ -1484,48 +1483,48 @@
         <v>652231</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K31" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L31" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N31" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -1536,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9">
         <v>0</v>
@@ -1560,9 +1559,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>16</v>
@@ -1590,18 +1589,18 @@
         <v>0</v>
       </c>
       <c r="L33" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N33" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -1636,7 +1635,7 @@
         <v>1102171</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1651,7 +1650,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1666,7 +1665,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1681,9 +1680,9 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -1718,7 +1717,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1733,12 +1732,12 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9">
@@ -1751,7 +1750,7 @@
         <v>1369441</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9">
         <v>902973</v>
@@ -1772,12 +1771,12 @@
         <v>3179513</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11">
@@ -1811,12 +1810,12 @@
         <v>38769972</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9">
@@ -1829,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9">
         <v>1427302</v>
@@ -1850,12 +1849,12 @@
         <v>1987632</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11">
@@ -1865,36 +1864,36 @@
         <v>0</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K43" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L43" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M43" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9">
@@ -1928,51 +1927,51 @@
         <v>85073827</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K45" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L45" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M45" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N45" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9">
@@ -1982,10 +1981,10 @@
         <v>0</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9">
         <v>0</v>
@@ -2006,12 +2005,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11">
@@ -2036,18 +2035,18 @@
         <v>0</v>
       </c>
       <c r="L47" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M47" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N47" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
@@ -2082,7 +2081,7 @@
         <v>129010944</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2097,7 +2096,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2112,7 +2111,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2127,9 +2126,9 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -2164,7 +2163,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2179,12 +2178,12 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9">
@@ -2197,7 +2196,7 @@
         <v>24703099</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9">
         <v>35944946</v>
@@ -2218,12 +2217,12 @@
         <v>29111621</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11">
@@ -2257,25 +2256,25 @@
         <v>122788871</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9">
         <v>21362956</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9">
         <v>82608056</v>
@@ -2296,51 +2295,51 @@
         <v>79578492</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K57" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L57" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M57" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N57" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9">
@@ -2374,90 +2373,90 @@
         <v>130435117</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J59" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K59" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L59" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M59" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N59" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J60" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L60" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M60" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N60" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11">
@@ -2470,28 +2469,28 @@
         <v>100904762</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J61" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K61" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L61" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M61" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N61" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2506,7 +2505,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2521,7 +2520,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2536,9 +2535,9 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B65" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
@@ -2573,7 +2572,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2588,12 +2587,12 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9">
@@ -2606,7 +2605,7 @@
         <v>-755124</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9">
         <v>-675453</v>
@@ -2627,12 +2626,12 @@
         <v>-3767191</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11">
@@ -2666,12 +2665,12 @@
         <v>-36010063</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9">
@@ -2684,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9">
         <v>-806126</v>
@@ -2705,12 +2704,12 @@
         <v>-1518962</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11">
@@ -2720,36 +2719,36 @@
         <v>0</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J70" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K70" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L70" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M70" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N70" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9">
@@ -2783,12 +2782,12 @@
         <v>-72793716</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
@@ -2798,10 +2797,10 @@
         <v>0</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I72" s="11">
         <v>0</v>
@@ -2822,12 +2821,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9">
@@ -2852,18 +2851,18 @@
         <v>0</v>
       </c>
       <c r="L73" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M73" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N73" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
@@ -2898,7 +2897,7 @@
         <v>-114089932</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2913,7 +2912,7 @@
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2928,7 +2927,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2943,9 +2942,9 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B78" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -2980,7 +2979,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2995,12 +2994,12 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9">
@@ -3013,7 +3012,7 @@
         <v>614317</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I80" s="9">
         <v>227520</v>
@@ -3034,12 +3033,12 @@
         <v>-587678</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11">
@@ -3073,12 +3072,12 @@
         <v>2759909</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="9">
@@ -3091,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I82" s="9">
         <v>621176</v>
@@ -3112,12 +3111,12 @@
         <v>468670</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11">
@@ -3127,36 +3126,36 @@
         <v>0</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J83" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K83" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L83" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M83" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N83" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="9">
@@ -3190,12 +3189,12 @@
         <v>12280111</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11">
@@ -3205,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I85" s="11">
         <v>0</v>
@@ -3229,12 +3228,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9">
@@ -3259,18 +3258,18 @@
         <v>0</v>
       </c>
       <c r="L86" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M86" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N86" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>

--- a/database/industries/folad/fakhouz/product/quarterly.xlsx
+++ b/database/industries/folad/fakhouz/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\fakhouz\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\folad\fakhouz\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAC702B-E620-4214-90FA-E2825C42C611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EC9678-4EA1-4FF5-B881-C96753BE5996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
